--- a/data/trans_dic/P33_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>62,11; 69,4</t>
+          <t>61,92; 69,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56,88; 62,69</t>
+          <t>57,08; 62,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59,77; 64,55</t>
+          <t>59,86; 64,49</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>73,76; 78,19</t>
+          <t>73,51; 78,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,13; 71,2</t>
+          <t>53,72; 70,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,58; 73,72</t>
+          <t>64,93; 73,72</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>69,89; 77,48</t>
+          <t>69,56; 77,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,26; 72,24</t>
+          <t>65,66; 72,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68,77; 73,8</t>
+          <t>68,66; 74,02</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>72,16; 75,74</t>
+          <t>71,99; 75,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>58,75; 68,22</t>
+          <t>57,74; 68,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,03; 71,11</t>
+          <t>65,39; 71,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Estudios-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,31 +543,85 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -542,6 +633,15 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>65,88%</t>
+          <t>73,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>59,77%</t>
+          <t>65,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>62,2%</t>
+          <t>70,38%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>66,73%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>65,65%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>56,56%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>59,94%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>60,1%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>68,88%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>60,25%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>64,46%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>62,74%</t>
         </is>
       </c>
     </row>
@@ -579,17 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>61,92; 69,42</t>
+          <t>70,31; 75,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>57,08; 62,54</t>
+          <t>62,15; 68,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59,86; 64,49</t>
+          <t>67,22; 73,65</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>62,96; 70,31</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>63,11; 68,19</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>53,93; 59,74</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>56,6; 62,91</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>57,36; 62,77</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>67,01; 70,83</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>58,18; 62,4</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>62,22; 66,7</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>60,28; 64,99</t>
         </is>
       </c>
     </row>
@@ -606,17 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>75,8%</t>
+          <t>85,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>66,89%</t>
+          <t>77,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>71,24%</t>
+          <t>78,43%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>77,6%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>82,27%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>72,18%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>75,15%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>68,59%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>84,17%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>75,08%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>76,83%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>72,99%</t>
         </is>
       </c>
     </row>
@@ -629,17 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>73,51; 78,29</t>
+          <t>84,11; 87,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,72; 70,92</t>
+          <t>75,88; 79,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,93; 73,72</t>
+          <t>76,31; 80,13</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>75,44; 79,87</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>80,26; 84,23</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>69,99; 74,46</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>73,14; 77,05</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>55,07; 72,78</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>82,75; 85,44</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>73,65; 76,51</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>75,44; 78,16</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>66,55; 75,43</t>
         </is>
       </c>
     </row>
@@ -656,17 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>73,74%</t>
+          <t>83,54%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>69,24%</t>
+          <t>77,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71,42%</t>
+          <t>79,17%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>77,3%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>83,47%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>81,1%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>78,63%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>72,59%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>83,51%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>79,21%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>78,9%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>74,87%</t>
         </is>
       </c>
     </row>
@@ -679,17 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>69,56; 77,52</t>
+          <t>79,84; 86,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>65,66; 72,26</t>
+          <t>73,14; 81,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68,66; 74,02</t>
+          <t>75,47; 83,04</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>73,45; 80,76</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>79,81; 86,64</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>77,34; 84,71</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>75,0; 81,99</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>69,03; 75,31</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>80,79; 85,78</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>76,24; 81,88</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>76,22; 81,22</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>72,24; 77,14</t>
         </is>
       </c>
     </row>
@@ -706,17 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>73,79%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>65,8%</t>
+          <t>74,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>69,56%</t>
+          <t>76,75%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>75,8%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>75,96%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>67,45%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>71,43%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>67,52%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>78,66%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>70,72%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>74,04%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>71,41%</t>
         </is>
       </c>
     </row>
@@ -729,17 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>71,99; 75,62</t>
+          <t>80,08; 83,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,74; 68,34</t>
+          <t>72,35; 75,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>65,39; 71,15</t>
+          <t>75,17; 78,23</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>74,02; 77,5</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>74,28; 77,33</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>65,71; 68,9</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>69,76; 72,98</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>59,15; 70,12</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>77,57; 79,67</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>69,62; 71,81</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>72,85; 75,1</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>67,2; 73,03</t>
         </is>
       </c>
     </row>
@@ -751,12 +1211,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P33_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>70,31; 75,64</t>
+          <t>70,2; 75,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62,15; 68,38</t>
+          <t>62,06; 68,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>67,22; 73,65</t>
+          <t>66,97; 73,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62,96; 70,31</t>
+          <t>63,05; 70,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,11; 68,19</t>
+          <t>63,19; 68,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>53,93; 59,74</t>
+          <t>53,56; 59,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,6; 62,91</t>
+          <t>56,43; 63,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57,36; 62,77</t>
+          <t>57,37; 62,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>67,01; 70,83</t>
+          <t>66,81; 70,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>58,18; 62,4</t>
+          <t>58,16; 62,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62,22; 66,7</t>
+          <t>62,05; 66,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>60,28; 64,99</t>
+          <t>60,25; 65,07</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,11; 87,61</t>
+          <t>83,99; 87,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>75,88; 79,49</t>
+          <t>75,6; 79,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,31; 80,13</t>
+          <t>76,53; 80,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,44; 79,87</t>
+          <t>75,7; 79,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>80,26; 84,23</t>
+          <t>80,3; 84,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>69,99; 74,46</t>
+          <t>70,02; 74,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>73,14; 77,05</t>
+          <t>72,82; 77,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>55,07; 72,78</t>
+          <t>54,94; 73,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>82,75; 85,44</t>
+          <t>82,76; 85,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>73,65; 76,51</t>
+          <t>73,51; 76,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>75,44; 78,16</t>
+          <t>75,48; 78,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>66,55; 75,43</t>
+          <t>65,82; 75,45</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,84; 86,65</t>
+          <t>80,03; 86,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>73,14; 81,22</t>
+          <t>73,1; 81,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>75,47; 83,04</t>
+          <t>75,3; 82,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>73,45; 80,76</t>
+          <t>73,67; 80,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>79,81; 86,64</t>
+          <t>79,81; 86,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>77,34; 84,71</t>
+          <t>77,05; 84,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>75,0; 81,99</t>
+          <t>74,82; 82,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>69,03; 75,31</t>
+          <t>69,52; 75,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>80,79; 85,78</t>
+          <t>80,75; 85,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>76,24; 81,88</t>
+          <t>76,14; 81,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>76,22; 81,22</t>
+          <t>76,28; 81,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>72,24; 77,14</t>
+          <t>72,25; 77,2</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,08; 83,06</t>
+          <t>79,88; 82,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>72,35; 75,64</t>
+          <t>72,47; 75,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,17; 78,23</t>
+          <t>75,42; 78,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>74,02; 77,5</t>
+          <t>74,23; 77,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>74,28; 77,33</t>
+          <t>74,35; 77,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,71; 68,9</t>
+          <t>65,78; 69,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,76; 72,98</t>
+          <t>69,97; 73,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>59,15; 70,12</t>
+          <t>60,09; 69,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>77,57; 79,67</t>
+          <t>77,7; 79,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>69,62; 71,81</t>
+          <t>69,49; 71,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>72,85; 75,1</t>
+          <t>73,08; 75,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>67,2; 73,03</t>
+          <t>66,63; 73,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>66,73%</t>
+          <t>66,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>60,1%</t>
+          <t>59,89%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>62,74%</t>
+          <t>62,6%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63,05; 70,27</t>
+          <t>62,77; 70,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57,37; 62,99</t>
+          <t>57,15; 62,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>60,25; 65,07</t>
+          <t>60,16; 64,95</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>77,6%</t>
+          <t>79,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>68,59%</t>
+          <t>65,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>72,99%</t>
+          <t>72,72%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,7; 79,8</t>
+          <t>76,06; 85,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>54,94; 73,03</t>
+          <t>44,87; 73,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>65,82; 75,45</t>
+          <t>61,88; 77,69</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>77,3%</t>
+          <t>76,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>72,59%</t>
+          <t>72,42%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>74,87%</t>
+          <t>74,44%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>73,67; 80,84</t>
+          <t>71,86; 80,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>69,52; 75,68</t>
+          <t>69,26; 75,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>72,25; 77,2</t>
+          <t>71,6; 76,87</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>75,8%</t>
+          <t>76,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>67,52%</t>
+          <t>65,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>71,41%</t>
+          <t>71,25%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>74,23; 77,63</t>
+          <t>74,63; 82,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>60,09; 69,95</t>
+          <t>52,67; 70,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>66,63; 73,04</t>
+          <t>63,5; 74,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>70,2; 75,76</t>
+          <t>70,37; 75,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62,06; 68,51</t>
+          <t>62,33; 68,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>66,97; 73,63</t>
+          <t>67,18; 73,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62,77; 70,09</t>
+          <t>62,43; 70,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,19; 68,33</t>
+          <t>63,07; 68,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>53,56; 59,38</t>
+          <t>53,72; 59,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,43; 63,16</t>
+          <t>56,39; 62,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57,15; 62,63</t>
+          <t>57,38; 62,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>66,81; 70,84</t>
+          <t>67,05; 70,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>58,16; 62,46</t>
+          <t>58,11; 62,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62,05; 66,78</t>
+          <t>62,09; 66,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>60,16; 64,95</t>
+          <t>60,33; 64,73</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>83,99; 87,47</t>
+          <t>84,2; 87,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>75,6; 79,58</t>
+          <t>75,65; 79,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,53; 80,33</t>
+          <t>76,57; 80,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>76,06; 85,5</t>
+          <t>75,99; 86,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>80,3; 84,09</t>
+          <t>80,26; 84,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>70,02; 74,27</t>
+          <t>69,97; 74,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>72,82; 77,01</t>
+          <t>72,94; 77,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>44,87; 73,96</t>
+          <t>48,68; 73,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>82,76; 85,42</t>
+          <t>82,85; 85,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>73,51; 76,63</t>
+          <t>73,5; 76,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>75,48; 78,17</t>
+          <t>75,47; 78,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>61,88; 77,69</t>
+          <t>62,6; 77,54</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,03; 86,71</t>
+          <t>80,11; 86,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>73,1; 81,42</t>
+          <t>73,14; 81,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>75,3; 82,79</t>
+          <t>74,68; 82,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>71,86; 80,19</t>
+          <t>71,43; 80,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>79,81; 86,42</t>
+          <t>79,87; 86,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>77,05; 84,61</t>
+          <t>77,44; 84,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>74,82; 82,02</t>
+          <t>74,93; 82,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>69,26; 75,45</t>
+          <t>69,07; 75,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>80,75; 85,81</t>
+          <t>80,92; 85,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>76,14; 81,83</t>
+          <t>76,52; 81,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>76,28; 81,43</t>
+          <t>76,36; 81,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>71,6; 76,87</t>
+          <t>71,73; 76,88</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,88; 82,84</t>
+          <t>80,16; 82,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>72,47; 75,53</t>
+          <t>72,52; 75,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,42; 78,23</t>
+          <t>75,32; 78,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>74,63; 82,14</t>
+          <t>74,42; 82,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>74,35; 77,32</t>
+          <t>74,51; 77,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,78; 69,09</t>
+          <t>65,92; 68,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,97; 73,02</t>
+          <t>69,99; 73,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,67; 70,43</t>
+          <t>53,39; 70,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>77,7; 79,68</t>
+          <t>77,7; 79,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>69,49; 71,73</t>
+          <t>69,55; 71,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73,08; 75,08</t>
+          <t>73,02; 75,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>63,5; 74,42</t>
+          <t>64,28; 74,2</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sueño recomendado por la Sociedad Española del Sueño</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1597</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1292</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1070</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1239</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>744388</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>633099</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>529498</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>332348</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>858924</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>754916</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>591075</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>431794</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1603312</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1388016</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1120573</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>764142</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>717319; 771320</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>604121; 663796</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>505445; 552574</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>311994; 350991</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>825141; 892411</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>717008; 791135</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>556060; 619792</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>413669; 452286</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1560688; 1650592</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1338750; 1435513</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1079398; 1163011</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>736454; 790178</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1435</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1535</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1270</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1182</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1442</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2666</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2617</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2977</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3351</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1431575</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1519436</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1624780</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1754258</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1294357</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1264257</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1489805</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1435570</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2725932</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2783693</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3114584</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3189827</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1402161; 1458918</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1479928; 1557704</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1586146; 1662305</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1680146; 1918211</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1262784; 1323333</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1225551; 1303776</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1445813; 1526412</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1059103; 1607844</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2683318; 2767718</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2724999; 2837037</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3059583; 3169142</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2746093; 3401234</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1216</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>455264</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>372519</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>432989</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>488381</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>396858</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>371945</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>431807</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>473788</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>852121</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>744465</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>864797</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>962168</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>436532; 470745</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>351939; 390974</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>408391; 451949</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>455926; 512881</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>379756; 410821</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>355168; 387278</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>411459; 451704</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>451877; 494257</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>825707; 875693</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>719127; 770515</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>836891; 893101</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>927135; 993691</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2580</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2368</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2465</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2389</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2496</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2215</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2398</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3417</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5076</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4583</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4863</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5806</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2631226</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2525056</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2587268</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2574986</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2550138</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2391118</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2512687</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2341151</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5181365</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4916174</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5099955</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4916137</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2588708; 2674029</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2470376; 2577049</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2538860; 2637967</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2492358; 2777745</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2501367; 2598566</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2336731; 2442970</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2462005; 2570547</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1895744; 2509408</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5118185; 5248700</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4834427; 4998194</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5029752; 5186334</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4435516; 5119581</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P33_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Estudios-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado por la Sociedad Española del Sueño</t>
+          <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1262,7 +1262,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado por la Sociedad Española del Sueño</t>
+          <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
